--- a/010_ParametrosGlobais/ParametrosGlobais.xlsx
+++ b/010_ParametrosGlobais/ParametrosGlobais.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7d85c290aa42d292/IT/Development/OrcamentoPadaria/010_ParametrosGlobais/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://jcbrothers-my.sharepoint.com/personal/jefferson_lojasjckids_com_br/Documents/Cursos/OrcamentoPadaria/010_ParametrosGlobais/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DEB4B0A3-A216-437C-8D95-01F793BF6935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{DEB4B0A3-A216-437C-8D95-01F793BF6935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E07F80C-E0E0-42E2-AFCD-DBC2C4A7AC69}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="2655" windowWidth="29040" windowHeight="15720" xr2:uid="{FBD31EC1-4AA0-4D78-AC79-DC3DF5C0DA48}"/>
+    <workbookView xWindow="6900" yWindow="4185" windowWidth="24585" windowHeight="12420" xr2:uid="{FBD31EC1-4AA0-4D78-AC79-DC3DF5C0DA48}"/>
   </bookViews>
   <sheets>
     <sheet name="Parametros" sheetId="1" r:id="rId1"/>
@@ -434,7 +434,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -464,7 +464,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>46053</v>
+        <v>46387</v>
       </c>
     </row>
   </sheetData>
